--- a/data/testdata/addpersonnel.xlsx
+++ b/data/testdata/addpersonnel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicInstitutionSystem\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB2DAB14-E0B1-4528-AE43-F1F265630429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D798B5-3EF1-46D4-A9C3-492C9FF2CEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -378,11 +378,11 @@
     <t>技术工四级</t>
   </si>
   <si>
-    <t>9级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10级</t>
+    <t>14级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1434,7 +1434,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AB6" sqref="AB6"/>
+      <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/testdata/addpersonnel.xlsx
+++ b/data/testdata/addpersonnel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PublicInstitutionSystem\data\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D798B5-3EF1-46D4-A9C3-492C9FF2CEBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C37B0E5-0510-419A-9B35-AF449A94E966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="新增管理人员" sheetId="1" r:id="rId1"/>
@@ -724,8 +724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AJ3"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1433,7 +1433,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E1CB62-050A-43BF-AB9F-5BF29549618A}">
   <dimension ref="A1:AE3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Y10" sqref="Y10"/>
     </sheetView>
   </sheetViews>
